--- a/natmiOut/OldD4/LR-pairs_lrc2p/Postn-Ptk7.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Postn-Ptk7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.25958076575411</v>
+        <v>10.36018933333333</v>
       </c>
       <c r="H2">
-        <v>4.25958076575411</v>
+        <v>31.080568</v>
       </c>
       <c r="I2">
-        <v>0.002559881337719761</v>
+        <v>0.005638280859431424</v>
       </c>
       <c r="J2">
-        <v>0.002559881337719761</v>
+        <v>0.005724973729136561</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.994812487778748</v>
+        <v>2.737758666666667</v>
       </c>
       <c r="N2">
-        <v>0.994812487778748</v>
+        <v>8.213276</v>
       </c>
       <c r="O2">
-        <v>0.09970399119968194</v>
+        <v>0.2155392685809311</v>
       </c>
       <c r="P2">
-        <v>0.09970399119968194</v>
+        <v>0.2294598627058675</v>
       </c>
       <c r="Q2">
-        <v>4.23748413847435</v>
+        <v>28.36369813564089</v>
       </c>
       <c r="R2">
-        <v>4.23748413847435</v>
+        <v>255.273283220768</v>
       </c>
       <c r="S2">
-        <v>0.0002552303863682411</v>
+        <v>0.001215270932495713</v>
       </c>
       <c r="T2">
-        <v>0.0002552303863682411</v>
+        <v>0.001313651685882373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.25958076575411</v>
+        <v>10.36018933333333</v>
       </c>
       <c r="H3">
-        <v>4.25958076575411</v>
+        <v>31.080568</v>
       </c>
       <c r="I3">
-        <v>0.002559881337719761</v>
+        <v>0.005638280859431424</v>
       </c>
       <c r="J3">
-        <v>0.002559881337719761</v>
+        <v>0.005724973729136561</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.00640875092578</v>
+        <v>7.652392333333334</v>
       </c>
       <c r="N3">
-        <v>7.00640875092578</v>
+        <v>22.957177</v>
       </c>
       <c r="O3">
-        <v>0.7022096375201955</v>
+        <v>0.602460350688687</v>
       </c>
       <c r="P3">
-        <v>0.7022096375201955</v>
+        <v>0.6413702257825379</v>
       </c>
       <c r="Q3">
-        <v>29.84436395245473</v>
+        <v>79.28023342628178</v>
       </c>
       <c r="R3">
-        <v>29.84436395245473</v>
+        <v>713.5221008365361</v>
       </c>
       <c r="S3">
-        <v>0.001797573346254906</v>
+        <v>0.003396840663854367</v>
       </c>
       <c r="T3">
-        <v>0.001797573346254906</v>
+        <v>0.003671827693255414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.25958076575411</v>
+        <v>10.36018933333333</v>
       </c>
       <c r="H4">
-        <v>4.25958076575411</v>
+        <v>31.080568</v>
       </c>
       <c r="I4">
-        <v>0.002559881337719761</v>
+        <v>0.005638280859431424</v>
       </c>
       <c r="J4">
-        <v>0.002559881337719761</v>
+        <v>0.005724973729136561</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.97643838964866</v>
+        <v>2.311751</v>
       </c>
       <c r="N4">
-        <v>1.97643838964866</v>
+        <v>4.623502</v>
       </c>
       <c r="O4">
-        <v>0.1980863712801226</v>
+        <v>0.182000380730382</v>
       </c>
       <c r="P4">
-        <v>0.1980863712801226</v>
+        <v>0.1291699115115946</v>
       </c>
       <c r="Q4">
-        <v>8.418798949245458</v>
+        <v>23.95017805152267</v>
       </c>
       <c r="R4">
-        <v>8.418798949245458</v>
+        <v>143.701068309136</v>
       </c>
       <c r="S4">
-        <v>0.0005070776050966135</v>
+        <v>0.001026169263081344</v>
       </c>
       <c r="T4">
-        <v>0.0005070776050966135</v>
+        <v>0.0007394943499987734</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1581.64863550855</v>
+        <v>1740.779215333333</v>
       </c>
       <c r="H5">
-        <v>1581.64863550855</v>
+        <v>5222.337646</v>
       </c>
       <c r="I5">
-        <v>0.9505237833309312</v>
+        <v>0.9473767143164811</v>
       </c>
       <c r="J5">
-        <v>0.9505237833309312</v>
+        <v>0.9619433540606744</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.994812487778748</v>
+        <v>2.737758666666667</v>
       </c>
       <c r="N5">
-        <v>0.994812487778748</v>
+        <v>8.213276</v>
       </c>
       <c r="O5">
-        <v>0.09970399119968194</v>
+        <v>0.2155392685809311</v>
       </c>
       <c r="P5">
-        <v>0.09970399119968194</v>
+        <v>0.2294598627058675</v>
       </c>
       <c r="Q5">
-        <v>1573.443813882123</v>
+        <v>4765.833383532033</v>
       </c>
       <c r="R5">
-        <v>1573.443813882123</v>
+        <v>42892.5004517883</v>
       </c>
       <c r="S5">
-        <v>0.09477101492831555</v>
+        <v>0.2041968840743801</v>
       </c>
       <c r="T5">
-        <v>0.09477101492831555</v>
+        <v>0.220727389953584</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1581.64863550855</v>
+        <v>1740.779215333333</v>
       </c>
       <c r="H6">
-        <v>1581.64863550855</v>
+        <v>5222.337646</v>
       </c>
       <c r="I6">
-        <v>0.9505237833309312</v>
+        <v>0.9473767143164811</v>
       </c>
       <c r="J6">
-        <v>0.9505237833309312</v>
+        <v>0.9619433540606744</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.00640875092578</v>
+        <v>7.652392333333334</v>
       </c>
       <c r="N6">
-        <v>7.00640875092578</v>
+        <v>22.957177</v>
       </c>
       <c r="O6">
-        <v>0.7022096375201955</v>
+        <v>0.602460350688687</v>
       </c>
       <c r="P6">
-        <v>0.7022096375201955</v>
+        <v>0.6413702257825379</v>
       </c>
       <c r="Q6">
-        <v>11081.67684071692</v>
+        <v>13321.12552144282</v>
       </c>
       <c r="R6">
-        <v>11081.67684071692</v>
+        <v>119890.1296929853</v>
       </c>
       <c r="S6">
-        <v>0.667466961347138</v>
+        <v>0.5707569075414032</v>
       </c>
       <c r="T6">
-        <v>0.667466961347138</v>
+        <v>0.6169618261839065</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1581.64863550855</v>
+        <v>1740.779215333333</v>
       </c>
       <c r="H7">
-        <v>1581.64863550855</v>
+        <v>5222.337646</v>
       </c>
       <c r="I7">
-        <v>0.9505237833309312</v>
+        <v>0.9473767143164811</v>
       </c>
       <c r="J7">
-        <v>0.9505237833309312</v>
+        <v>0.9619433540606744</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.97643838964866</v>
+        <v>2.311751</v>
       </c>
       <c r="N7">
-        <v>1.97643838964866</v>
+        <v>4.623502</v>
       </c>
       <c r="O7">
-        <v>0.1980863712801226</v>
+        <v>0.182000380730382</v>
       </c>
       <c r="P7">
-        <v>0.1980863712801226</v>
+        <v>0.1291699115115946</v>
       </c>
       <c r="Q7">
-        <v>3126.031082154519</v>
+        <v>4024.248091826048</v>
       </c>
       <c r="R7">
-        <v>3126.031082154519</v>
+        <v>24145.48855095629</v>
       </c>
       <c r="S7">
-        <v>0.1882858070554777</v>
+        <v>0.1724229227006979</v>
       </c>
       <c r="T7">
-        <v>0.1882858070554777</v>
+        <v>0.1242541379231839</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>78.0676497118796</v>
+        <v>1.888270666666667</v>
       </c>
       <c r="H8">
-        <v>78.0676497118796</v>
+        <v>5.664812</v>
       </c>
       <c r="I8">
-        <v>0.04691633533134898</v>
+        <v>0.001027645346503238</v>
       </c>
       <c r="J8">
-        <v>0.04691633533134898</v>
+        <v>0.00104344617770491</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.994812487778748</v>
+        <v>2.737758666666667</v>
       </c>
       <c r="N8">
-        <v>0.994812487778748</v>
+        <v>8.213276</v>
       </c>
       <c r="O8">
-        <v>0.09970399119968194</v>
+        <v>0.2155392685809311</v>
       </c>
       <c r="P8">
-        <v>0.09970399119968194</v>
+        <v>0.2294598627058675</v>
       </c>
       <c r="Q8">
-        <v>77.66267282491479</v>
+        <v>5.169629382679112</v>
       </c>
       <c r="R8">
-        <v>77.66267282491479</v>
+        <v>46.52666444411201</v>
       </c>
       <c r="S8">
-        <v>0.004677745884998146</v>
+        <v>0.0002214979263459055</v>
       </c>
       <c r="T8">
-        <v>0.004677745884998146</v>
+        <v>0.0002394290166771309</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,61 +959,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>78.0676497118796</v>
+        <v>1.888270666666667</v>
       </c>
       <c r="H9">
-        <v>78.0676497118796</v>
+        <v>5.664812</v>
       </c>
       <c r="I9">
-        <v>0.04691633533134898</v>
+        <v>0.001027645346503238</v>
       </c>
       <c r="J9">
-        <v>0.04691633533134898</v>
+        <v>0.00104344617770491</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.00640875092578</v>
+        <v>7.652392333333334</v>
       </c>
       <c r="N9">
-        <v>7.00640875092578</v>
+        <v>22.957177</v>
       </c>
       <c r="O9">
-        <v>0.7022096375201955</v>
+        <v>0.602460350688687</v>
       </c>
       <c r="P9">
-        <v>0.7022096375201955</v>
+        <v>0.6413702257825379</v>
       </c>
       <c r="Q9">
-        <v>546.9738641055217</v>
+        <v>14.44978797285822</v>
       </c>
       <c r="R9">
-        <v>546.9738641055217</v>
+        <v>130.048091755724</v>
       </c>
       <c r="S9">
-        <v>0.03294510282680251</v>
+        <v>0.000619115575837938</v>
       </c>
       <c r="T9">
-        <v>0.03294510282680251</v>
+        <v>0.0006692353105865243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,433 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.888270666666667</v>
+      </c>
+      <c r="H10">
+        <v>5.664812</v>
+      </c>
+      <c r="I10">
+        <v>0.001027645346503238</v>
+      </c>
+      <c r="J10">
+        <v>0.00104344617770491</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.311751</v>
+      </c>
+      <c r="N10">
+        <v>4.623502</v>
+      </c>
+      <c r="O10">
+        <v>0.182000380730382</v>
+      </c>
+      <c r="P10">
+        <v>0.1291699115115946</v>
+      </c>
+      <c r="Q10">
+        <v>4.365211601937334</v>
+      </c>
+      <c r="R10">
+        <v>26.191269611624</v>
+      </c>
+      <c r="S10">
+        <v>0.0001870318443193946</v>
+      </c>
+      <c r="T10">
+        <v>0.0001347818504412549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.9712386666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.913716</v>
+      </c>
+      <c r="I11">
+        <v>0.000528573002675469</v>
+      </c>
+      <c r="J11">
+        <v>0.0005367002158443456</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.737758666666667</v>
+      </c>
+      <c r="N11">
+        <v>8.213276</v>
+      </c>
+      <c r="O11">
+        <v>0.2155392685809311</v>
+      </c>
+      <c r="P11">
+        <v>0.2294598627058675</v>
+      </c>
+      <c r="Q11">
+        <v>2.659017077068444</v>
+      </c>
+      <c r="R11">
+        <v>23.931153693616</v>
+      </c>
+      <c r="S11">
+        <v>0.0001139282383882971</v>
+      </c>
+      <c r="T11">
+        <v>0.000123151157841853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.9712386666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.913716</v>
+      </c>
+      <c r="I12">
+        <v>0.000528573002675469</v>
+      </c>
+      <c r="J12">
+        <v>0.0005367002158443456</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.652392333333334</v>
+      </c>
+      <c r="N12">
+        <v>22.957177</v>
+      </c>
+      <c r="O12">
+        <v>0.602460350688687</v>
+      </c>
+      <c r="P12">
+        <v>0.6413702257825379</v>
+      </c>
+      <c r="Q12">
+        <v>7.43229932663689</v>
+      </c>
+      <c r="R12">
+        <v>66.890693939732</v>
+      </c>
+      <c r="S12">
+        <v>0.0003184442765564353</v>
+      </c>
+      <c r="T12">
+        <v>0.0003442235386136248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>78.0676497118796</v>
-      </c>
-      <c r="H10">
-        <v>78.0676497118796</v>
-      </c>
-      <c r="I10">
-        <v>0.04691633533134898</v>
-      </c>
-      <c r="J10">
-        <v>0.04691633533134898</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.97643838964866</v>
-      </c>
-      <c r="N10">
-        <v>1.97643838964866</v>
-      </c>
-      <c r="O10">
-        <v>0.1980863712801226</v>
-      </c>
-      <c r="P10">
-        <v>0.1980863712801226</v>
-      </c>
-      <c r="Q10">
-        <v>154.295899880203</v>
-      </c>
-      <c r="R10">
-        <v>154.295899880203</v>
-      </c>
-      <c r="S10">
-        <v>0.009293486619548329</v>
-      </c>
-      <c r="T10">
-        <v>0.009293486619548329</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.9712386666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.913716</v>
+      </c>
+      <c r="I13">
+        <v>0.000528573002675469</v>
+      </c>
+      <c r="J13">
+        <v>0.0005367002158443456</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.311751</v>
+      </c>
+      <c r="N13">
+        <v>4.623502</v>
+      </c>
+      <c r="O13">
+        <v>0.182000380730382</v>
+      </c>
+      <c r="P13">
+        <v>0.1291699115115946</v>
+      </c>
+      <c r="Q13">
+        <v>2.245261958905334</v>
+      </c>
+      <c r="R13">
+        <v>13.471571753432</v>
+      </c>
+      <c r="S13">
+        <v>9.620048773073656E-05</v>
+      </c>
+      <c r="T13">
+        <v>6.932551938886786E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>83.47417250000001</v>
+      </c>
+      <c r="H14">
+        <v>166.948345</v>
+      </c>
+      <c r="I14">
+        <v>0.04542878647490873</v>
+      </c>
+      <c r="J14">
+        <v>0.03075152581663975</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.737758666666667</v>
+      </c>
+      <c r="N14">
+        <v>8.213276</v>
+      </c>
+      <c r="O14">
+        <v>0.2155392685809311</v>
+      </c>
+      <c r="P14">
+        <v>0.2294598627058675</v>
+      </c>
+      <c r="Q14">
+        <v>228.5321392047034</v>
+      </c>
+      <c r="R14">
+        <v>1371.19283522822</v>
+      </c>
+      <c r="S14">
+        <v>0.009791687409321124</v>
+      </c>
+      <c r="T14">
+        <v>0.007056240891882096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>83.47417250000001</v>
+      </c>
+      <c r="H15">
+        <v>166.948345</v>
+      </c>
+      <c r="I15">
+        <v>0.04542878647490873</v>
+      </c>
+      <c r="J15">
+        <v>0.03075152581663975</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.652392333333334</v>
+      </c>
+      <c r="N15">
+        <v>22.957177</v>
+      </c>
+      <c r="O15">
+        <v>0.602460350688687</v>
+      </c>
+      <c r="P15">
+        <v>0.6413702257825379</v>
+      </c>
+      <c r="Q15">
+        <v>638.7771176703443</v>
+      </c>
+      <c r="R15">
+        <v>3832.662706022066</v>
+      </c>
+      <c r="S15">
+        <v>0.02736904263103499</v>
+      </c>
+      <c r="T15">
+        <v>0.01972311305617578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>83.47417250000001</v>
+      </c>
+      <c r="H16">
+        <v>166.948345</v>
+      </c>
+      <c r="I16">
+        <v>0.04542878647490873</v>
+      </c>
+      <c r="J16">
+        <v>0.03075152581663975</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.311751</v>
+      </c>
+      <c r="N16">
+        <v>4.623502</v>
+      </c>
+      <c r="O16">
+        <v>0.182000380730382</v>
+      </c>
+      <c r="P16">
+        <v>0.1291699115115946</v>
+      </c>
+      <c r="Q16">
+        <v>192.9715017510475</v>
+      </c>
+      <c r="R16">
+        <v>771.8860070041901</v>
+      </c>
+      <c r="S16">
+        <v>0.008268056434552615</v>
+      </c>
+      <c r="T16">
+        <v>0.003972171868581874</v>
       </c>
     </row>
   </sheetData>
